--- a/TravelAgencyApp/Data/Data.xlsx
+++ b/TravelAgencyApp/Data/Data.xlsx
@@ -362,7 +362,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
